--- a/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-hdl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:56:13+00:00</t>
+    <t>2024-09-18T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1235,15 +1235,10 @@
     <t>Low Range, if relevant</t>
   </si>
   <si>
-    <t>&gt;1.5 mmol/L.</t>
+    <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="1.5"/&gt;
-&lt;/valueQuantity&gt;</t>
   </si>
   <si>
     <t>ele-1
@@ -1267,9 +1262,6 @@
   </si>
   <si>
     <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
-  </si>
-  <si>
-    <t>Per Australian NHF Recommendations.</t>
   </si>
   <si>
     <t>value:IVL_PQ.high</t>
@@ -6159,7 +6151,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6210,22 +6202,22 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6236,10 +6228,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6265,13 +6257,13 @@
         <v>385</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6321,7 +6313,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6330,22 +6322,22 @@
         <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6356,10 +6348,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6385,16 +6377,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6422,10 +6414,10 @@
         <v>120</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6443,7 +6435,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6461,10 +6453,10 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>315</v>
@@ -6478,10 +6470,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6507,16 +6499,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6544,10 +6536,10 @@
         <v>214</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6565,7 +6557,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6583,10 +6575,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>315</v>
@@ -6600,10 +6592,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6626,19 +6618,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6687,7 +6679,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6699,19 +6691,19 @@
         <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6722,10 +6714,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6751,13 +6743,13 @@
         <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6807,7 +6799,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6828,10 +6820,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6842,10 +6834,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6868,16 +6860,16 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6927,7 +6919,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6948,10 +6940,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6962,10 +6954,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6988,16 +6980,16 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7047,7 +7039,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7068,10 +7060,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7082,10 +7074,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7111,16 +7103,16 @@
         <v>363</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7169,7 +7161,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7190,10 +7182,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7204,10 +7196,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7322,10 +7314,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7442,10 +7434,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7564,10 +7556,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7593,13 +7585,13 @@
         <v>198</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>212</v>
@@ -7651,7 +7643,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>93</v>
@@ -7669,7 +7661,7 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>219</v>
@@ -7686,10 +7678,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7712,16 +7704,16 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>281</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>283</v>
@@ -7773,7 +7765,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7791,7 +7783,7 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>288</v>
@@ -7808,10 +7800,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7837,13 +7829,13 @@
         <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>299</v>
@@ -7895,7 +7887,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7930,10 +7922,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7959,10 +7951,10 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>309</v>
@@ -8017,7 +8009,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8052,10 +8044,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8081,10 +8073,10 @@
         <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>366</v>
@@ -8139,7 +8131,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:01:59+00:00</t>
+    <t>2024-09-18T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
